--- a/public/Format User.xlsx
+++ b/public/Format User.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\multitenancy\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
